--- a/Dohoon/yanolja_review_L7해운대.xlsx
+++ b/Dohoon/yanolja_review_L7해운대.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +436,11 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>review</t>
         </is>
       </c>
@@ -444,7 +449,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>위치고 좋고 깨끗한 침구에 조용히 잘 쉬다 왔습니다</t>
         </is>
@@ -454,7 +462,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>전반적으로 괜찮았습니다. 주차비를 1박당 추가로 걷는거는 좀 그랬네요.</t>
         </is>
@@ -464,7 +475,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>감성자체가 젊은 고객층이라 가족단위는 별로인듯 특히 스영장은 작고 낮다 거기다 사람도많다 객실은 매우 깨끗하지만 전체적으로 이상한 냄새가 난다 가독단위는 비추다 젊은 커플은 추천이다</t>
         </is>
@@ -474,7 +488,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>신축호텔에 걸맞는 룸 컨디션.
 전체적으로 청결하고 친절함.
@@ -489,7 +506,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>친절하시고, 모든게 좋았습니다. 수영장도 너무좋네요</t>
         </is>
@@ -499,7 +519,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>직원분들 친절하시고 숙소도 깨끗 좋았습니다</t>
         </is>
@@ -509,7 +532,10 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>위치가 해운대 시장 메인라인 근처라 참 좋고
 주변에 먹거리도 많아 좋습니다.
@@ -523,7 +549,10 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>뷰&amp;서비스 최고에요!!!</t>
         </is>
@@ -533,7 +562,10 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>일단 숙소입고 바로 오른쪽에 맥도날드 있구요! 맞은편 건물에 타이마사지 있고 1분거리에 해운대 해수욕장 입니다! 오션뷰로 하면 최고구요! 룸컨디션도 좋고! 장기투숙하고 싶다 라능 생각을 했어요! 그정도로 만족! 조식도 좋았고~! 해운대전통시장도 걸어서 5분거리라! 정말 만족입니다! 위치상 정말 좋구요! 주차도 편했고! 응대도 완전 친절하셨습니다! 다음에도 부산 가면 여기 묶을 거예요!!</t>
         </is>
@@ -543,7 +575,10 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>객실 깨끗하고 좋아요~</t>
         </is>
@@ -553,7 +588,10 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>수영장 이용 너무 좋았고 숙소도 깔끔하고 좋았어요</t>
         </is>
@@ -563,7 +601,10 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>1. 방음
 벽간, 층간 소음이 없을 정도로 튼튼한 구조로 설계된 것 같음
@@ -588,7 +629,10 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>시설이 깨끗하고 편안하게 숙박할 수 있었으며 해운대백사장과 가까워 좋았습니다</t>
         </is>
@@ -598,7 +642,10 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>가구냄새가 아직 좀 심하고 아쉬운 점이 살짝있지만 나쁘지 않았어요 잘 이용했습니다</t>
         </is>
@@ -608,7 +655,10 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>직원분들 다 친절하시구 신축이라 깔끔해서 너무 잘쉬다 왔습니다 정말 만족스러운 휴가였어요</t>
         </is>
@@ -618,7 +668,10 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>주말이었으나 방간 소음이 느껴지지 않았음.
 방이 매우 청결하고 가격에 비해 방의 넓이가 넓었음</t>
@@ -629,7 +682,10 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>깨끗하고 엄청좋아요</t>
         </is>
@@ -639,7 +695,10 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>신축이라 시설은 깨끗했고 주변맛집이랑 가까워 편했습니다. 근데 침구에 걸레냄새가 심하네요
 여름이라 습해서 어쩔수 없지만, 냄새에 예민해서 정말 힘들었습니다. 뷰도 좋았고, 다음에 재방문 할때는 좀 넓은곳으로 예약해야겠네요 잘 쉬다 갑니다</t>
@@ -650,7 +709,10 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>신축이라 시설은 깨끗했고 주변맛집이랑 가까워 편했습니다. 근데 침구에 걸레냄새가 심하네요
 여름이라 습해서 어쩔수 없지만, 냄새에 예민해서 정말 힘들었습니다. 뷰도 좋았고, 다음에 재방문 할때는 좀 넓은곳으로 예약해야겠네요 잘 쉬다 갑니다</t>
@@ -661,7 +723,10 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>가족들이랑갔는데 숙소가 괞찬았습니다
 타운오션뷰였는데 슈베리어 사이드뷰로 객실업그레이드 해주셔서 해운대도 잘보여서 좋았습니다</t>
@@ -672,7 +737,10 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>해운대 정문(?)바로 앞임. 해수욕을 위한 접근성은 최고. 옆에 맥도날드 있어서 조식 해결 가능. 새로 오픈해서 객실 까끗함.</t>
         </is>
@@ -682,7 +750,10 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>새건물이라 복도에 냄새빼고는 좋았습니다</t>
         </is>
@@ -692,7 +763,10 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>바다도 앞에있고 정말좋았습니다</t>
         </is>
@@ -702,7 +776,10 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>이번에 급하게 부산여행을 계획하게되어서 다녀왔는데 신상호텔이라 그런지 더욱 깔끔하고 쾌적한 컨디션이라 편하게 즐기다 왔습니다 ! 루프탑 풀의 경우는 풀패키지상품 구매해야지만 이용할 수 있어서 이번에는 못가봤지만 다음에는 꼭 이용해보고 싶어요!
 그래도 해운대 해수욕장에서 3분 거리인 진짜 바로 코앞이라 위치가 너무 좋았구요
@@ -716,7 +793,10 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>새로 지은 호텔이라서 아직 건물 내 일부 구역에서 냄새가 좀 나는 편인 것 같아요. (건물 초입, 프론트 데스크가 있는 3층 등) 하지만 객실층에서는 크게 냄새로 인한 불편감을 느끼진 못했습니다. 
 객실 자체는 매우 깔끔하고, 사이드 오션뷰도 기대했던 것보다는 만족스러웠어요. 가성비 측면에서 추천할만한 숙소였습니다.</t>
@@ -727,7 +807,10 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>시설이 깨끗하고 직원분들도 친절했습니다.
 해수욕장도 가까워서 좋았습니다.
@@ -739,7 +822,10 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>바닷가 바로앞이라 편리합니다.</t>
         </is>
@@ -749,7 +835,10 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>신축이라 깔끔하고 직원분도 친절하셨어요.객실 층에 얼음정수기가 있어 편하게 이용했습니다</t>
         </is>
@@ -759,7 +848,10 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>엘리베이터 고장으로 타는데까지 너무 오래걸렸어요.
 수리중이면 안내를 좀 해주는게 좋을 것 같아요.
@@ -772,7 +864,10 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>깔끔 그자체 부산가면 여기 가야지</t>
         </is>
@@ -782,7 +877,10 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>위치좋고 조식도 괜찮았어요.
 복도 냄새가 좀 심해서 힘들었고
@@ -796,7 +894,10 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>진짜 만족했어요!!! 다만 칫솔치약 이런 일회용이 없어서 불편했네요ㅜ</t>
         </is>
@@ -806,7 +907,10 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>숙박후 호텔에서 제공하는 서베이에 참여했는데, 개별적인 메시지를 주셨습니다. 섬세하게 고객 관리를 하는구나 생각했어요.</t>
         </is>
@@ -816,7 +920,10 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>사이드 오션뷰로 업그레이드 받았는데 일단 숙소 상태 깔끔하고, 바다도 잘보이고, 냄새에 민감한 편이지만 새거 냄새는 제가 갔을 때는 별로 잘안느껴져서 좋았습니다! 침대는 푹신한건 아닌데 딱 잠자기 좋은 평평한 느낌이었어요!! 
 조식도 맛있었는데 웨이팅 발생할수도 있으니 일찍 여유롭게 가시는 걸 추천드려요!</t>
@@ -827,7 +934,10 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>새건물이라 깨끗. 수영장 온수풀도 있고 옆 사우나 있어서 좋음. 금방따뜻해짐
 8-10시 저녁타임 사람 너어무 많음.9시 반부턴 많이빠짐. 위치 좋음. 1층 24시간 편의점있음. 
@@ -849,7 +959,10 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>해운대에 새로 생긴 호텔이 L7이라고해서 바로 예약해서 다녀왔어요! 이름이 있는 호텔인만큼 전체적으로 서비스가 좋았고, 새건물이라서 다 깔끔했어요😊 저는 조식이 포함되어있는 옵션을 선택했기 때문에 수영장은 포함되어있지 않았는데, 수영장도 사람이 몰리지 않도록 4부제로 운영하는 점이 좋았기 때문에 나중에 방문하게 된다면 수영장을 이용해보고 싶네요! 조식 퀄리티도 괜찮은 편이었고, 돼지국밥도 있어서 아침에 든든하게 국밥도 먹을 수 있었어요! 다른 곳과 다르게 조식을 먹는 곳의 뷰가 특별하지는 않지만, 그래도 만족스럽게 먹고 아침을 시작할 수 있었어요😊 부대시설도 좋고, 자유롭게 짐보관을 할 수 있는 점도 좋았어요! 한가지 아쉬운 점이 있다면, 새건물이라서 지금 새건물 냄새가 정말 심해요😭 방 안으로 들어가면 새건물 냄새가 확 느껴지는데, 시간이 해결해줄 문제라고 생각하기에 다음에 또 다시 방문할 의향 있어요! 편안하게 잘 쉬디가 갑니다❤️</t>
         </is>
@@ -859,7 +972,10 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>사진에 보이는건 슈페이러 퀸 타운오션뷰 객실이고,
 2박 연속으로 투숙했습니다.
@@ -884,7 +1000,10 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>새집 냄새가 많이 거슬리고 머리 아파요
 시설은 다 새것입니다
@@ -896,7 +1015,10 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>엄청 깨끗하고 친절하시고 간편한 체크인 체크아웃 할수 있어서 좋아요!!</t>
         </is>
@@ -906,7 +1028,10 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>조식은 아주 맛있었고 룸도 화장실과 샤월실 분리라 쾌적했습니다. 공간도 넓고 깨끗하고^^
 해운대 바로 앞인데 앞 건물로 시야가 막혀 아쉬웠고
@@ -918,7 +1043,10 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>별로였어요. 새호텔인데 침구도 더럽고 천장도 마감 잘 안되어있고 새거 냄새로 머리만 아팠어요</t>
         </is>
@@ -928,7 +1056,10 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>오픈한지 얼마 안된 호텔이라 너무 깨끗하고 직원들도 너무 친절하고 너무 좋아오! 
 남자친구 생일 기념으로 처음으로 둘이 해운대 놀러갔는데 조식도 너무 진짜 생각이상이였고 너무 좋았습니다!! 다음에 또 갈 생각이예요!!</t>
@@ -939,7 +1070,10 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>너무 깔끔하고 위치도 좋아요!!</t>
         </is>
@@ -949,7 +1083,10 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>최고였어요 ㅎㅎ 조식까지 완벽</t>
         </is>
@@ -959,7 +1096,10 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>시설도 깔끔하고 직원분들이 너무 친절하셔서
 잘 쉬다가 갑니다!
@@ -971,7 +1111,10 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>비교적 고층 타운뷰 룸에서 보낸 오픈 첫날
 컨시어지 서비스도 좋았고 입주 청소 끝난 새 집인 듯 좋았습니다
